--- a/linux-kernel/process.xlsx
+++ b/linux-kernel/process.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="465" windowWidth="19440" windowHeight="15600"/>
+    <workbookView xWindow="480" yWindow="465" windowWidth="19440" windowHeight="15600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="process_task" sheetId="5" r:id="rId1"/>
+    <sheet name="schedule" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>内核虚拟地址空间</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -173,6 +174,62 @@
   </si>
   <si>
     <t>孤儿进程处理：如果exit_notify过程发现父亲已经退出了，寻找新养父，并且把子进程都设置新养父</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抢占式多任务 &amp; 非抢占式多任务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>非抢占式多任务需要进程执行中主动让步</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抢占式多任务由调度程序决定什么时候运行什么进程，强制挂起当前任务，执行下一个任务。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO消耗型与处理器消耗型任务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO消耗型需要频繁分配CPU时间片，但每个时间片不需要很长，以便快速响应IO，比如键盘等</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理器消耗型不需要频繁分配，但每个时间片尽量长，获取CPU时间进行计算，比如科学击穿mathlib库</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux优先级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rt priority实时优先级，0-99 越大越高</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nice值 -20-19 代表对系统有待，这个值代表时间片分配比例，值越小时间片分配比例越大，</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux 调度算法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个调度器类有自己优先级，找到最高优先级调度器类，再在下面选择自己需要调度的程序</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CFS调度算法：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标延迟是一个无限小调度周期，比如20ms内所有进程都需要分配调度一次，那么目标延迟是20ms</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CFS调度算法跟剧task的ni值计算在目标延迟中的所占比例，进行时间片分配</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2625,6 +2682,840 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="矩形 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="942975" y="2247901"/>
+          <a:ext cx="1228725" cy="533399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>实时调度器类</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>优先级</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="矩形 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2714625" y="2257426"/>
+          <a:ext cx="1390650" cy="542924"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CFS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>完全公平调度</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>优先级</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="直接箭头连接符 52"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="51" idx="3"/>
+          <a:endCxn id="52" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171700" y="2514601"/>
+          <a:ext cx="542925" cy="14287"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="矩形 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1152525" y="3209926"/>
+          <a:ext cx="981075" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>task_struct</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="矩形 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1304925" y="3362326"/>
+          <a:ext cx="981075" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>task_struct</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="矩形 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1457325" y="3514726"/>
+          <a:ext cx="981075" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>task_struct</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="矩形 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3143250" y="3143250"/>
+          <a:ext cx="981075" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>task_struct</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="矩形 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3295650" y="3295650"/>
+          <a:ext cx="981075" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>task_struct</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="矩形 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3448050" y="3448050"/>
+          <a:ext cx="981075" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>task_struct</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="矩形 61"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3600450" y="3600450"/>
+          <a:ext cx="981075" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>task_struct</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="直接箭头连接符 62"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="51" idx="2"/>
+          <a:endCxn id="56" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1385887" y="2952750"/>
+          <a:ext cx="428626" cy="85725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>71438</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="直接箭头连接符 65"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="52" idx="2"/>
+          <a:endCxn id="59" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3350419" y="2859881"/>
+          <a:ext cx="342900" cy="223838"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2954,8 +3845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:AR101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="O84" sqref="O84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="11.25"/>
@@ -3156,6 +4047,97 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:F34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z35" sqref="Z35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.75" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="D3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="D4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="D7" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="D8" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="D11" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="D12" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="5:5">
+      <c r="E30" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="5:5">
+      <c r="E32" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6">
+      <c r="F34" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/linux-kernel/process.xlsx
+++ b/linux-kernel/process.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nb/Downloads/backup/linux-kernel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="465" windowWidth="19440" windowHeight="15600" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="28740" windowHeight="18620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="process_task" sheetId="5" r:id="rId1"/>
     <sheet name="schedule" sheetId="6" r:id="rId2"/>
+    <sheet name="工作表1" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>内核虚拟地址空间</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -230,14 +236,774 @@
   </si>
   <si>
     <t>CFS调度算法跟剧task的ni值计算在目标延迟中的所占比例，进行时间片分配</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间片</t>
+    <rPh sb="0" eb="1">
+      <t>shi jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般unix系统都是给进程分配一个时间片比如10ms，系统定时器中断触发时，重新计算当前进程剩余时间片，当减到0时就进行重新调度</t>
+    <rPh sb="0" eb="1">
+      <t>yi ban</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xi tong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dou shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>jin cheng</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>fen pei</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>yi ge</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>shi jian</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>pian</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>bi ru</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>xi tong</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ding shi qi</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>zhong duan</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>chu fa</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>chong xin</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ji suan</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>dang qian</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>jin cheng</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>sheng yu</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>shi jian pian</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>dang</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>jian</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>jiu</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>jin xing</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>chong xin</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>diao du</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vruntime存放task的虚拟运行时间，这个值时经过ni加权算得的，比如不同优先级的vruntime应该值也趋近一样</t>
+    <rPh sb="8" eb="9">
+      <t>cun fang</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>xu ni</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>yun xing</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>shi jian</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>zh ge</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>jing guo</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>jia quan</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>suan</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>de</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>de</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>bi ru</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>bu tong</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>you xian ji</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>de</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ying gai</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ye</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>qu jin</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>yi yang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统定时器中断时，周期调用update_curr，更新进程的vruntime</t>
+    <rPh sb="0" eb="1">
+      <t>xi tong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ding shi qi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhong duan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhou qi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>diao yong</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>geng xin</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>jin cheng</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>先计算出两次更新时间差值delta_exec</t>
+    <rPh sb="0" eb="1">
+      <t>xian</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ji suan chu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>liang ci</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>geng xin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi jian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>cha zhi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">再更新当前task的vruntime </t>
+    <rPh sb="0" eb="1">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>geng xin</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dang qian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>其中定义NI_0的vruntim与物理运行时间相等，则计算vruntime的公式为</t>
+    <rPh sb="0" eb="1">
+      <t>qi zhogn</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ding yi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>wu li</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>yun xing</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>shi jian</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>xiang deng</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ze</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ji suan</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>de</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>gong shi</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当curr.nice != NICE_0_LOAD</t>
+    <rPh sb="0" eb="1">
+      <t>dang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vruntime=vruntime+delta_exec*(NI_0_weight/Current_NI_weight)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当curr.nice == NICE_0_LOAD</t>
+    <rPh sb="0" eb="1">
+      <t>dang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vruntime=vruntime+delta_exec</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CFS核心：在CFS中可运行队列由红黑树组织，key为se中的vruntime，这样可以快速找到最小具有vruntime的task，进行调度</t>
+    <rPh sb="3" eb="4">
+      <t>he xin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ke yun xing</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>dui lie</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>you</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>hong hei shu</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>zu zhi</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>de</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>zhe yang</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ke yi</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>kuai su</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>zhao dao</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>zui xiao</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ju you</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>de</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>jin xing</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>diao du</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入节点：进程被唤醒进入可运行状态或者fork出新的进程时向红黑树插入节点</t>
+    <rPh sb="0" eb="1">
+      <t>cha ru</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie dian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jin cheng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>huan xing</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jin ru</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>yun xing</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zhuang tai</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>huo zhe</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>xin</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>de</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>jin cheng</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>xiang</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>hong hei shu</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>cha ru</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>jie dian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除节点：进程阻塞或被终止时删除对应节点</t>
+    <rPh sb="0" eb="1">
+      <t>shan chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie dian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jin cheng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zu se</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhong zhi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shan chu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>dui ying</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>jie dian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度入口schedule</t>
+    <rPh sb="0" eb="1">
+      <t>diao du</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ru kou</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>其中调用pick_next_task，按照优先级遍历调度类，然后从中取得需要调度的task</t>
+    <rPh sb="0" eb="1">
+      <t>qi zhong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>diao yong</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>an zhao</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>you xian ji</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>bian li</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>diao du lei</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>lei</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ran hou</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>cong</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>qu</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>de</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>xu yao</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>diao du</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠和唤醒</t>
+    <rPh sb="0" eb="1">
+      <t>shui mian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>he</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>huan xing</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_wait_queue(q, wait)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>while(!conditon)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理信号</t>
+    <rPh sb="0" eb="1">
+      <t>chu li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin hao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>schedule()</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当进程阻塞时，将自己加入某资源等待队列（不同资源应该有不同的等待队列），然后schedule进行调度</t>
+    <rPh sb="0" eb="1">
+      <t>dang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>jin cheng</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zu se</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jaing</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zi ji</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jia ru</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>mou</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zi yuan</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>deng dai</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>dui lie</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>bu tong</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>zi yuan</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ying gai</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>you</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>bu tong</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>de</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>deng dai</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>dui lie</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ran hou</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>jin xing</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>diao du</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当资源好了后，应该wakeup在此等待队列的进程</t>
+    <rPh sb="0" eb="1">
+      <t>dang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zi yuan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hao le</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>le</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ying gai</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ci</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>deng dai</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>dui lie</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>de</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>jin cheng</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括设置进程状态可运行状态，从等待队列移除，添加到CFS红黑树中。</t>
+    <rPh sb="0" eb="1">
+      <t>bao kuo</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果唤醒进程优先级大于当前优先级，还需要设置need_resched标志，这样返回用户上下文时就可以重新执行调度程序。</t>
+    <rPh sb="0" eb="1">
+      <t>ru guo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>huan xing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jin cheng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>you xian ji</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>da yu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>dang qian</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>you xian ji</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>hai xu yao</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>she zhi</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>biao zhi</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>zhe yang</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>fan hui</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>shang xia wen</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>jiu ke yi</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>chogn xin</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>zhi xing</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>diao du</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>chegn xu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上下文切换</t>
+    <rPh sb="0" eb="1">
+      <t>shang xia wen</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qie huan</t>
+    </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2693,13 +3459,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2782,13 +3548,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2879,13 +3645,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>100013</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2930,13 +3696,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3000,13 +3766,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3070,13 +3836,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3140,13 +3906,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3210,13 +3976,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3280,13 +4046,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3350,13 +4116,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3420,13 +4186,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>90487</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>176212</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3471,13 +4237,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>71438</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3518,6 +4284,1452 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>70757</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>150585</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>134257</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="矩形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1467757" y="5856514"/>
+          <a:ext cx="1061357" cy="642257"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>task_struct</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-se</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>调度实体</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>81642</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>123371</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>141513</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>148771</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="矩形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2676071" y="6137728"/>
+          <a:ext cx="1057728" cy="642257"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>sched_entity</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-exec_start</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-vruntimie</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>134257</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>81642</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直接箭头连接符 52"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="3"/>
+          <a:endCxn id="15" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2529114" y="6177643"/>
+          <a:ext cx="146957" cy="281214"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>199571</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>90714</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="椭圆 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2993571" y="9080500"/>
+          <a:ext cx="290286" cy="281214"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>143328</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>52615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>34472</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="椭圆 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2737757" y="9459686"/>
+          <a:ext cx="290286" cy="281214"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>23585</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>41729</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>14514</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="椭圆 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3216728" y="9448800"/>
+          <a:ext cx="290286" cy="281214"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>132443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123371</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>105228</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="椭圆 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3026228" y="9847943"/>
+          <a:ext cx="290286" cy="281214"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>58057</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>139701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>148771</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>112486</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="椭圆 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3450771" y="9855201"/>
+          <a:ext cx="290286" cy="281214"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>145143</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>52615</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直线连接符 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="4"/>
+          <a:endCxn id="28" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2882900" y="9361714"/>
+          <a:ext cx="255814" cy="97972"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>145143</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>168728</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>41729</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直线连接符 33"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="4"/>
+          <a:endCxn id="29" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3138714" y="9361714"/>
+          <a:ext cx="223157" cy="87086"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>14514</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>168728</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>132443</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直线连接符 36"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="4"/>
+          <a:endCxn id="30" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3171371" y="9730014"/>
+          <a:ext cx="190500" cy="117929"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>168728</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>14514</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>3628</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>139701</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直线连接符 39"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="4"/>
+          <a:endCxn id="31" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3361871" y="9730014"/>
+          <a:ext cx="234043" cy="125187"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>18142</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>99786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>151038</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>2723</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="矩形 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4209142" y="9044215"/>
+          <a:ext cx="931182" cy="365579"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>task_struct</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>170542</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>103867</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>908</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="矩形 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4361542" y="9196615"/>
+          <a:ext cx="931182" cy="365579"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>task_struct</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>123371</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>96158</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>56695</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>153308</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="矩形 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4513942" y="9349015"/>
+          <a:ext cx="931182" cy="365579"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>task_struct</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>94344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>151494</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="矩形 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4666342" y="9501415"/>
+          <a:ext cx="931182" cy="365579"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>task_struct</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>29028</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>92529</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>149680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="矩形 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4818742" y="9653815"/>
+          <a:ext cx="931182" cy="365579"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>task_struct</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>90714</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>18142</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>128362</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="曲线连接符 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="6"/>
+          <a:endCxn id="44" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3283857" y="9221107"/>
+          <a:ext cx="925285" cy="5898"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>126548</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>170542</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>28121</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="曲线连接符 53"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="6"/>
+          <a:endCxn id="45" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3507014" y="9379405"/>
+          <a:ext cx="854528" cy="210002"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>148771</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>9071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>99786</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>126094</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="曲线连接符 54"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="31" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3741057" y="9570357"/>
+          <a:ext cx="749300" cy="425451"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123371</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>122919</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>118836</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="曲线连接符 63"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="6"/>
+          <a:endCxn id="47" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3316514" y="9684205"/>
+          <a:ext cx="1349828" cy="304345"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>34472</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>39007</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>29028</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>121105</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="曲线连接符 64"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="6"/>
+          <a:endCxn id="48" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3028043" y="9600293"/>
+          <a:ext cx="1790699" cy="236312"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>90323</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>39007</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>143328</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="直接箭头连接符 52"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="68" idx="0"/>
+          <a:endCxn id="28" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2086037" y="9600293"/>
+          <a:ext cx="651720" cy="296635"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1396216" cy="248594"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="文本框 67"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1387929" y="9896928"/>
+          <a:ext cx="1396216" cy="248594"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>具有最小</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>vruntime</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>task</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3842,204 +6054,204 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AR101"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="O84" sqref="O84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="2.75" style="1"/>
+    <col min="1" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="Z10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="Z11" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="AA12" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="AA13" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="42:44">
+    <row r="23" spans="42:44" x14ac:dyDescent="0.2">
       <c r="AP23" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="42:44">
+    <row r="24" spans="42:44" x14ac:dyDescent="0.2">
       <c r="AQ24" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="42:44">
+    <row r="26" spans="42:44" x14ac:dyDescent="0.2">
       <c r="AQ26" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="42:44">
+    <row r="27" spans="42:44" x14ac:dyDescent="0.2">
       <c r="AR27" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="7:10">
+    <row r="56" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G56" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="7:10">
+    <row r="57" spans="7:10" x14ac:dyDescent="0.2">
       <c r="I57" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="7:10">
+    <row r="58" spans="7:10" x14ac:dyDescent="0.2">
       <c r="J58" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="7:10">
+    <row r="59" spans="7:10" x14ac:dyDescent="0.2">
       <c r="J59" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="7:10">
+    <row r="60" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G60" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="7:10">
+    <row r="61" spans="7:10" x14ac:dyDescent="0.2">
       <c r="I61" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="7:10">
+    <row r="78" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G78" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="7:10">
+    <row r="79" spans="7:10" x14ac:dyDescent="0.2">
       <c r="H79" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="7:10">
+    <row r="80" spans="7:10" x14ac:dyDescent="0.2">
       <c r="J80" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="7:10">
+    <row r="81" spans="7:10" x14ac:dyDescent="0.2">
       <c r="J81" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="7:10">
+    <row r="82" spans="7:10" x14ac:dyDescent="0.2">
       <c r="J82" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="7:10">
+    <row r="83" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G83" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="7:10">
+    <row r="84" spans="7:10" x14ac:dyDescent="0.2">
       <c r="H84" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="7:10">
+    <row r="85" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G85" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="7:10">
+    <row r="86" spans="7:10" x14ac:dyDescent="0.2">
       <c r="H86" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="7:10">
+    <row r="87" spans="7:10" x14ac:dyDescent="0.2">
       <c r="H87" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="7:10">
+    <row r="88" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G88" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="7:10">
+    <row r="89" spans="7:10" x14ac:dyDescent="0.2">
       <c r="H89" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="7:10">
+    <row r="90" spans="7:10" x14ac:dyDescent="0.2">
       <c r="H90" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="7:10">
+    <row r="91" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G91" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="7:10">
+    <row r="92" spans="7:10" x14ac:dyDescent="0.2">
       <c r="H92" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="7:10">
+    <row r="93" spans="7:10" x14ac:dyDescent="0.2">
       <c r="H93" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="94" spans="7:10">
+    <row r="94" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G94" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="7:10">
+    <row r="95" spans="7:10" x14ac:dyDescent="0.2">
       <c r="H95" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="96" spans="7:10">
+    <row r="96" spans="7:10" x14ac:dyDescent="0.2">
       <c r="H96" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="8:10">
+    <row r="97" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H97" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="99" spans="8:10">
+    <row r="99" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H99" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="100" spans="8:10">
+    <row r="100" spans="8:10" x14ac:dyDescent="0.2">
       <c r="J100" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="101" spans="8:10">
+    <row r="101" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H101" s="1" t="s">
         <v>37</v>
       </c>
@@ -4053,86 +6265,227 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:F34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z35" sqref="Z35"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="O109" sqref="O109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="2.75" style="1"/>
+    <col min="1" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D3" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="3"/>
+      <c r="D7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
-      <c r="D7" s="1" t="s">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D10" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
-      <c r="D8" s="1" t="s">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="3" t="s">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
-      <c r="D11" s="1" t="s">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D14" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
-      <c r="D12" s="1" t="s">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D15" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="3" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="5:5">
-      <c r="E30" s="1" t="s">
+    <row r="33" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E33" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="5:5">
-      <c r="E32" s="1" t="s">
+    <row r="35" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E35" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="6:6">
-      <c r="F33" s="1" t="s">
+    <row r="36" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F36" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="6:6">
-      <c r="F34" s="1" t="s">
+    <row r="37" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F37" s="1" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F46" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F47" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="H49" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="H50" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="I51" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="J52" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="J54" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="L55" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F57" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="H68" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="H69" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E71" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F72" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E75" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="77" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F77" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="H79" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="H80" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H81" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I82" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I83" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H84" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F86" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H87" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H88" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B91" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -4140,4 +6493,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/linux-kernel/process.xlsx
+++ b/linux-kernel/process.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>内核虚拟地址空间</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -995,6 +995,615 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>qie huan</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>schedule函数选出将要执行的task后就调用context_switch函数进行上下文切换，它进行switch_mm进行虚拟内存切换，switch_to进行cpu切换</t>
+    <rPh sb="8" eb="9">
+      <t>han shu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xuan chu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jiang yao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zhi xing</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>jiu</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>diao yong</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>han shu</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>jin xing</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>shang xia wen</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>qie huan</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ta</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>jin xing</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>jin xing</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>xu ni</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>nei cun</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>qie huan</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>jin xing</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>qie huan</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>need_resched标志记录在thread_info中（最开始时全局变量，后来移到了task中，最后移到了threadinfo中，代表当前是否需要重新调度），当某个进程应该被抢占时，设置这个标志。</t>
+    <rPh sb="12" eb="13">
+      <t>biao zhi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ji lu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>zui kai shi</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>quan ju</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>bian liang</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>lai</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>yi dong</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>le</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>zui hou</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>dai biao</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>dang qian</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>shi fou</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>xu yao</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>chogn xin</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>diao du</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>dang</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>mou ge</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>jin cheng</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ying gai</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>qiang zhan</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>she zhi</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>zhe ge</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>biao zhi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>schedule调度时机：</t>
+    <rPh sb="8" eb="9">
+      <t>diao du</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shi ji</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-系统定时器周期性调度</t>
+    <rPh sb="2" eb="3">
+      <t>xi tong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ding shi qi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhou qi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>diao du</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-用户抢占：</t>
+    <rPh sb="2" eb="3">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qiang zhan</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内核空间返回到用户空间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断返回到用户空间时</t>
+    <rPh sb="4" eb="5">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>kong jian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>都会进行检查need_resched标志，如果设置了，就会重新schedule</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-内核抢占：因为内核task持有锁时候抢占时不安全的，所以threadinfo结构中放了一个持有锁数的变量preempt_count，当这个变量为0时候才能重新调度，另外释放锁时候，也会检查此值，如果为0进行重调度</t>
+    <rPh sb="2" eb="3">
+      <t>nei he</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qiang zhan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yin wei</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>nei he</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>chi you</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>suo</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>shi hou</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>qiang zhan</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>bu an quan</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>de</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>suo yi</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>jie gou</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>fang</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>le</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>yi ge</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>chi you</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>suo</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>shu liang</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>de</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>bian liang</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>dang</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>zhe g</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>bian liang</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>shi hou</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>cai neng</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>chong xin</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>diao du</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ling wai</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>shi fang</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>suo</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>shi hiou</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>ye hui</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>jian cha</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>ci</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>ru guo</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>jin xing</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>chong xin</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>diao du</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断返回到内核空间时</t>
+    <rPh sb="0" eb="1">
+      <t>zhong duan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fan hui</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>nei he</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>kong jian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内核执行再一次具有可抢占特性时候（即释放锁时候）</t>
+    <rPh sb="0" eb="1">
+      <t>nei he</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi xing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zai yi ci</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ju you</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>qiang zhan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>te xing</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shi hou</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>shi fang</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>suo</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>shi hou</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动调用schedule</t>
+    <rPh sb="0" eb="1">
+      <t>zhu dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>diao yong</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内核任务阻塞</t>
+    <rPh sb="0" eb="1">
+      <t>nei he</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ren wu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zu se</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时调度</t>
+    <rPh sb="0" eb="1">
+      <t>shi shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>diao du</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时调度策略</t>
+    <rPh sb="0" eb="1">
+      <t>shi shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>diao du</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ce lue</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>非实时调度</t>
+    <rPh sb="0" eb="1">
+      <t>fei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shi shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>diao du</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHED_FIFO实时调度</t>
+    <rPh sb="10" eb="11">
+      <t>shi shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>diao du</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHED_RR带有时间片的FIFO</t>
+    <rPh sb="8" eb="9">
+      <t>dai you</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shi jian pian</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>先进先出，按照优先级调度，当前任务一直执行完才会重新调度</t>
+    <rPh sb="0" eb="1">
+      <t>xian jin xian chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>an zhao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>you xian ji</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>diao du</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>dang qian</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ren wu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>yi zhi</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>zhi xing</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>wan</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>cai hui</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>chong xin</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>diao du</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>先进先出，按照优先级调度，当前任务执行完毕后重新分配时间片，放入队尾，轮询调度</t>
+    <rPh sb="0" eb="1">
+      <t>xian jin xian chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>an zhao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>you xian ji</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>diao du</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>dang qian ren wu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zhi xing</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>wan bi</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>chong xin</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>fen pei</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>shi jian pian</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>fang ru</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>dui lie</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>wei bu</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>lun xun</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>diao du</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHED_NORMAL普通非实时策略-CFS</t>
+    <rPh sb="12" eb="13">
+      <t>pu tong</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>fei</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shi shi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ce lue</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1695,8 +2304,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5495925" y="5067300"/>
-          <a:ext cx="1247775" cy="962025"/>
+          <a:off x="5330825" y="5400675"/>
+          <a:ext cx="1209675" cy="1028700"/>
           <a:chOff x="3695700" y="4495800"/>
           <a:chExt cx="1247775" cy="962025"/>
         </a:xfrm>
@@ -1812,8 +2421,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7410450" y="4210050"/>
-          <a:ext cx="1247775" cy="962025"/>
+          <a:off x="7188200" y="4486275"/>
+          <a:ext cx="1209675" cy="1028700"/>
           <a:chOff x="3695700" y="4495800"/>
           <a:chExt cx="1247775" cy="962025"/>
         </a:xfrm>
@@ -1929,8 +2538,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8829675" y="4724400"/>
-          <a:ext cx="1247775" cy="962025"/>
+          <a:off x="8562975" y="5038725"/>
+          <a:ext cx="1209675" cy="1019175"/>
           <a:chOff x="3695700" y="4495800"/>
           <a:chExt cx="1247775" cy="962025"/>
         </a:xfrm>
@@ -2046,8 +2655,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9105900" y="5638800"/>
-          <a:ext cx="1247775" cy="962025"/>
+          <a:off x="8832850" y="6010275"/>
+          <a:ext cx="1209675" cy="1028700"/>
           <a:chOff x="3695700" y="4495800"/>
           <a:chExt cx="1247775" cy="962025"/>
         </a:xfrm>
@@ -2163,8 +2772,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7515225" y="5848350"/>
-          <a:ext cx="1247775" cy="962025"/>
+          <a:off x="7292975" y="6229350"/>
+          <a:ext cx="1209675" cy="1028700"/>
           <a:chOff x="3695700" y="4495800"/>
           <a:chExt cx="1247775" cy="962025"/>
         </a:xfrm>
@@ -2280,8 +2889,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2295525" y="4810125"/>
-          <a:ext cx="1247775" cy="962025"/>
+          <a:off x="2232025" y="5124450"/>
+          <a:ext cx="1209675" cy="1028700"/>
           <a:chOff x="3695700" y="4495800"/>
           <a:chExt cx="1247775" cy="962025"/>
         </a:xfrm>
@@ -2401,8 +3010,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3867150" y="6200775"/>
-          <a:ext cx="1247775" cy="962025"/>
+          <a:off x="3752850" y="6610350"/>
+          <a:ext cx="1209675" cy="1028700"/>
           <a:chOff x="3695700" y="4495800"/>
           <a:chExt cx="1247775" cy="962025"/>
         </a:xfrm>
@@ -2518,8 +3127,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3952875" y="4343400"/>
-          <a:ext cx="1247775" cy="962025"/>
+          <a:off x="3838575" y="4629150"/>
+          <a:ext cx="1209675" cy="1028700"/>
           <a:chOff x="3695700" y="4495800"/>
           <a:chExt cx="1247775" cy="962025"/>
         </a:xfrm>
@@ -3209,8 +3818,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1495425" y="9439276"/>
-          <a:ext cx="2066925" cy="1371600"/>
+          <a:off x="1450975" y="10067926"/>
+          <a:ext cx="2003425" cy="1457325"/>
           <a:chOff x="3695700" y="4495800"/>
           <a:chExt cx="1962151" cy="1628775"/>
         </a:xfrm>
@@ -6057,7 +6666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AR101"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="O84" sqref="O84"/>
     </sheetView>
   </sheetViews>
@@ -6266,10 +6875,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L91"/>
+  <dimension ref="B2:N112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="O109" sqref="O109"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="AN14" sqref="AN14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -6333,9 +6942,17 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.2">
@@ -6486,6 +7103,101 @@
     <row r="91" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B91" s="3" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E93" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E94" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E95" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F96" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F97" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G98" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G99" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G100" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F101" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G102" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G103" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G104" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G105" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B107" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E108" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F109" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E110" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F111" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E112" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
